--- a/biology/Zoologie/Girardia_tigrina/Girardia_tigrina.xlsx
+++ b/biology/Zoologie/Girardia_tigrina/Girardia_tigrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Girardia tigrina est une espèce de vers plats d'eau douce du genre  Girardia et de la famille des Dugesiidae originaire d'Amérique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girardia tigrina est une espèce de vers plats d'eau douce du genre  Girardia et de la famille des Dugesiidae originaire d'Amérique.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Girardia tigrina mesure environ 10 mm de long[2]. Sa tête possède deux oreillettes larges et courtes[2]. Ses yeux se présentent sous la forme de deux tâches non pigmentées[2]. La surface dorsale du corps compte de nombreux points colorés[2].
-Ploïdie
-Girardia tigrina est haploïde (son numéro est alors 8), mais il existe des spécimens diploïdes (2n=16) ou triploïdes (3n=24)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girardia tigrina mesure environ 10 mm de long. Sa tête possède deux oreillettes larges et courtes. Ses yeux se présentent sous la forme de deux tâches non pigmentées. La surface dorsale du corps compte de nombreux points colorés.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire d'Amérique, l'espèce a été accidentellement introduite en Europe[3] et au Japon[2], où elle est devenue envahissante. Depuis qu'elle a été découverte en Europe en 1925[4], elle a été répertoriée dans de nombreux pays européens comme la France[4], l'Allemagne[5],[6], l'Italie[7], les Pays-Bas[8], la Roumanie[9] ou le pays de Galles[10].
-En Galles du Nord, il a été constaté que les espèces de vers plats  Polycelis nigra et Polycelis tenuis se déplaçaient, du fait de la prise de monopole de Girardia tigrina, qui dispose d'une meilleure capacité d'exploitation de la nourriture disponible[3].
+          <t>Ploïdie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girardia tigrina est haploïde (son numéro est alors 8), mais il existe des spécimens diploïdes (2n=16) ou triploïdes (3n=24).
 </t>
         </is>
       </c>
@@ -573,12 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Girardia tigrina est une espèce carnivore qui se nourrit d'oligochètes, d'isopodes, de chironomidés, d'escargots, de trichoptères ou d'éphéméroptères[3].
+          <t>Distribution et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Amérique, l'espèce a été accidentellement introduite en Europe et au Japon, où elle est devenue envahissante. Depuis qu'elle a été découverte en Europe en 1925, elle a été répertoriée dans de nombreux pays européens comme la France, l'Allemagne l'Italie, les Pays-Bas, la Roumanie ou le pays de Galles.
+En Galles du Nord, il a été constaté que les espèces de vers plats  Polycelis nigra et Polycelis tenuis se déplaçaient, du fait de la prise de monopole de Girardia tigrina, qui dispose d'une meilleure capacité d'exploitation de la nourriture disponible.
 </t>
         </is>
       </c>
@@ -604,13 +624,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girardia tigrina est une espèce carnivore qui se nourrit d'oligochètes, d'isopodes, de chironomidés, d'escargots, de trichoptères ou d'éphéméroptères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Girardia_tigrina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girardia_tigrina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Girardia tigrina (Girard, 1850)[11].
-Girardia tigrina a pour synonyme[11] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Girardia tigrina (Girard, 1850).
+Girardia tigrina a pour synonyme :
 Dugesia jimi Martins, 1970
 Dugesia tigrina (Girard, 1850)
 Euplanaria tigrina (Girard, 1850)
